--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/47/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/47/FD_Curve.xlsx
@@ -477,10 +477,10 @@
         <v>0.0620038</v>
       </c>
       <c r="B4" t="n">
-        <v>1.39919</v>
+        <v>2.24424</v>
       </c>
       <c r="C4" t="n">
-        <v>1399.19</v>
+        <v>2244.24</v>
       </c>
     </row>
     <row r="5">
@@ -488,1077 +488,1077 @@
         <v>0.0929936</v>
       </c>
       <c r="B5" t="n">
-        <v>1.40558</v>
+        <v>3.42934</v>
       </c>
       <c r="C5" t="n">
-        <v>1405.58</v>
+        <v>3429.34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.12397</v>
+        <v>0.124006</v>
       </c>
       <c r="B6" t="n">
-        <v>1.45758</v>
+        <v>4.399850000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>1457.58</v>
+        <v>4399.85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.154946</v>
+        <v>0.155041</v>
       </c>
       <c r="B7" t="n">
-        <v>1.48124</v>
+        <v>5.63424</v>
       </c>
       <c r="C7" t="n">
-        <v>1481.24</v>
+        <v>5634.24</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.185922</v>
+        <v>0.186012</v>
       </c>
       <c r="B8" t="n">
-        <v>1.50184</v>
+        <v>6.460760000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>1501.84</v>
+        <v>6460.76</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.216899</v>
+        <v>0.216989</v>
       </c>
       <c r="B9" t="n">
-        <v>1.52096</v>
+        <v>6.928350000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>1520.96</v>
+        <v>6928.35</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.247875</v>
+        <v>0.247965</v>
       </c>
       <c r="B10" t="n">
-        <v>1.5422</v>
+        <v>7.403</v>
       </c>
       <c r="C10" t="n">
-        <v>1542.2</v>
+        <v>7403</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.278898</v>
+        <v>0.278891</v>
       </c>
       <c r="B11" t="n">
-        <v>1.56023</v>
+        <v>7.76801</v>
       </c>
       <c r="C11" t="n">
-        <v>1560.23</v>
+        <v>7768.01</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309882</v>
+        <v>0.309816</v>
       </c>
       <c r="B12" t="n">
-        <v>1.57803</v>
+        <v>8.066750000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>1578.03</v>
+        <v>8066.75</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.340807</v>
+        <v>0.340741</v>
       </c>
       <c r="B13" t="n">
-        <v>1.59561</v>
+        <v>8.33085</v>
       </c>
       <c r="C13" t="n">
-        <v>1595.61</v>
+        <v>8330.85</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.371732</v>
+        <v>0.371666</v>
       </c>
       <c r="B14" t="n">
-        <v>1.61248</v>
+        <v>8.614850000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>1612.48</v>
+        <v>8614.85</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.402657</v>
+        <v>0.402591</v>
       </c>
       <c r="B15" t="n">
-        <v>1.6287</v>
+        <v>8.83921</v>
       </c>
       <c r="C15" t="n">
-        <v>1628.7</v>
+        <v>8839.209999999999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433582</v>
+        <v>0.433516</v>
       </c>
       <c r="B16" t="n">
-        <v>1.64438</v>
+        <v>9.040229999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>1644.38</v>
+        <v>9040.23</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.464502</v>
+        <v>0.464441</v>
       </c>
       <c r="B17" t="n">
-        <v>1.65975</v>
+        <v>9.235610000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>1659.75</v>
+        <v>9235.610000000001</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495427</v>
+        <v>0.495366</v>
       </c>
       <c r="B18" t="n">
-        <v>1.67469</v>
+        <v>9.420200000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>1674.69</v>
+        <v>9420.200000000001</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.526353</v>
+        <v>0.526291</v>
       </c>
       <c r="B19" t="n">
-        <v>1.68935</v>
+        <v>9.58831</v>
       </c>
       <c r="C19" t="n">
-        <v>1689.35</v>
+        <v>9588.309999999999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.5572780000000001</v>
+        <v>0.557216</v>
       </c>
       <c r="B20" t="n">
-        <v>1.70366</v>
+        <v>9.73208</v>
       </c>
       <c r="C20" t="n">
-        <v>1703.66</v>
+        <v>9732.08</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.588203</v>
+        <v>0.588141</v>
       </c>
       <c r="B21" t="n">
-        <v>1.71771</v>
+        <v>9.854120000000002</v>
       </c>
       <c r="C21" t="n">
-        <v>1717.71</v>
+        <v>9854.120000000001</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.619245</v>
+        <v>0.619183</v>
       </c>
       <c r="B22" t="n">
-        <v>1.73146</v>
+        <v>9.985989999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>1731.46</v>
+        <v>9985.99</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.6504219999999999</v>
+        <v>0.650356</v>
       </c>
       <c r="B23" t="n">
-        <v>1.74498</v>
+        <v>10.0772</v>
       </c>
       <c r="C23" t="n">
-        <v>1744.98</v>
+        <v>10077.2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.681594</v>
+        <v>0.681528</v>
       </c>
       <c r="B24" t="n">
-        <v>1.75829</v>
+        <v>10.1827</v>
       </c>
       <c r="C24" t="n">
-        <v>1758.29</v>
+        <v>10182.7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.712767</v>
+        <v>0.712705</v>
       </c>
       <c r="B25" t="n">
-        <v>1.77132</v>
+        <v>10.2517</v>
       </c>
       <c r="C25" t="n">
-        <v>1771.32</v>
+        <v>10251.7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.743944</v>
+        <v>0.743878</v>
       </c>
       <c r="B26" t="n">
-        <v>1.7841</v>
+        <v>10.3185</v>
       </c>
       <c r="C26" t="n">
-        <v>1784.1</v>
+        <v>10318.5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.775116</v>
+        <v>0.775055</v>
       </c>
       <c r="B27" t="n">
-        <v>1.79669</v>
+        <v>10.3754</v>
       </c>
       <c r="C27" t="n">
-        <v>1796.69</v>
+        <v>10375.4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.806289</v>
+        <v>0.806227</v>
       </c>
       <c r="B28" t="n">
-        <v>1.809</v>
+        <v>10.4128</v>
       </c>
       <c r="C28" t="n">
-        <v>1809</v>
+        <v>10412.8</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.837466</v>
+        <v>0.8374</v>
       </c>
       <c r="B29" t="n">
-        <v>1.82119</v>
+        <v>10.4324</v>
       </c>
       <c r="C29" t="n">
-        <v>1821.19</v>
+        <v>10432.4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.868638</v>
+        <v>0.868577</v>
       </c>
       <c r="B30" t="n">
-        <v>1.83312</v>
+        <v>10.4409</v>
       </c>
       <c r="C30" t="n">
-        <v>1833.12</v>
+        <v>10440.9</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.899811</v>
+        <v>0.899749</v>
       </c>
       <c r="B31" t="n">
-        <v>1.84494</v>
+        <v>10.4339</v>
       </c>
       <c r="C31" t="n">
-        <v>1844.94</v>
+        <v>10433.9</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.930988</v>
+        <v>0.930922</v>
       </c>
       <c r="B32" t="n">
-        <v>1.85649</v>
+        <v>10.4135</v>
       </c>
       <c r="C32" t="n">
-        <v>1856.49</v>
+        <v>10413.5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.962161</v>
+        <v>0.962099</v>
       </c>
       <c r="B33" t="n">
-        <v>1.86794</v>
+        <v>10.3835</v>
       </c>
       <c r="C33" t="n">
-        <v>1867.94</v>
+        <v>10383.5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.9933380000000001</v>
+        <v>0.993272</v>
       </c>
       <c r="B34" t="n">
-        <v>1.87924</v>
+        <v>10.3462</v>
       </c>
       <c r="C34" t="n">
-        <v>1879.24</v>
+        <v>10346.2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.02437</v>
+        <v>1.0243</v>
       </c>
       <c r="B35" t="n">
-        <v>1.89041</v>
+        <v>10.3038</v>
       </c>
       <c r="C35" t="n">
-        <v>1890.41</v>
+        <v>10303.8</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.05534</v>
+        <v>1.05527</v>
       </c>
       <c r="B36" t="n">
-        <v>1.90142</v>
+        <v>10.2572</v>
       </c>
       <c r="C36" t="n">
-        <v>1901.42</v>
+        <v>10257.2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.08631</v>
+        <v>1.08623</v>
       </c>
       <c r="B37" t="n">
-        <v>1.9123</v>
+        <v>10.2073</v>
       </c>
       <c r="C37" t="n">
-        <v>1912.3</v>
+        <v>10207.3</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.11728</v>
+        <v>1.1172</v>
       </c>
       <c r="B38" t="n">
-        <v>1.92304</v>
+        <v>10.1538</v>
       </c>
       <c r="C38" t="n">
-        <v>1923.04</v>
+        <v>10153.8</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.14824</v>
+        <v>1.14817</v>
       </c>
       <c r="B39" t="n">
-        <v>1.93366</v>
+        <v>10.093</v>
       </c>
       <c r="C39" t="n">
-        <v>1933.66</v>
+        <v>10093</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.17921</v>
+        <v>1.17914</v>
       </c>
       <c r="B40" t="n">
-        <v>1.94413</v>
+        <v>10.0283</v>
       </c>
       <c r="C40" t="n">
-        <v>1944.13</v>
+        <v>10028.3</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.21018</v>
+        <v>1.21011</v>
       </c>
       <c r="B41" t="n">
-        <v>1.95453</v>
+        <v>9.956620000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>1954.53</v>
+        <v>9956.620000000001</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.24114</v>
+        <v>1.24107</v>
       </c>
       <c r="B42" t="n">
-        <v>1.96481</v>
+        <v>9.881629999999999</v>
       </c>
       <c r="C42" t="n">
-        <v>1964.81</v>
+        <v>9881.629999999999</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.27211</v>
+        <v>1.27204</v>
       </c>
       <c r="B43" t="n">
-        <v>1.97502</v>
+        <v>9.79959</v>
       </c>
       <c r="C43" t="n">
-        <v>1975.02</v>
+        <v>9799.59</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.30308</v>
+        <v>1.30301</v>
       </c>
       <c r="B44" t="n">
-        <v>1.98512</v>
+        <v>9.71499</v>
       </c>
       <c r="C44" t="n">
-        <v>1985.12</v>
+        <v>9714.99</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.33405</v>
+        <v>1.33397</v>
       </c>
       <c r="B45" t="n">
-        <v>1.99511</v>
+        <v>9.622190000000002</v>
       </c>
       <c r="C45" t="n">
-        <v>1995.11</v>
+        <v>9622.190000000001</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.36502</v>
+        <v>1.36494</v>
       </c>
       <c r="B46" t="n">
-        <v>2.00496</v>
+        <v>9.527469999999999</v>
       </c>
       <c r="C46" t="n">
-        <v>2004.96</v>
+        <v>9527.469999999999</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.39598</v>
+        <v>1.39591</v>
       </c>
       <c r="B47" t="n">
-        <v>2.01474</v>
+        <v>9.424940000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>2014.74</v>
+        <v>9424.940000000001</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.42695</v>
+        <v>1.42688</v>
       </c>
       <c r="B48" t="n">
-        <v>2.02444</v>
+        <v>9.31948</v>
       </c>
       <c r="C48" t="n">
-        <v>2024.44</v>
+        <v>9319.48</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.45792</v>
+        <v>1.45785</v>
       </c>
       <c r="B49" t="n">
-        <v>2.03404</v>
+        <v>9.207690000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>2034.04</v>
+        <v>9207.690000000001</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.48889</v>
+        <v>1.48881</v>
       </c>
       <c r="B50" t="n">
-        <v>2.04358</v>
+        <v>9.091239999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>2043.58</v>
+        <v>9091.24</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.51986</v>
+        <v>1.5198</v>
       </c>
       <c r="B51" t="n">
-        <v>2.05301</v>
+        <v>7.097270000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>2053.01</v>
+        <v>7097.27</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.55082</v>
+        <v>1.55052</v>
       </c>
       <c r="B52" t="n">
-        <v>2.06234</v>
+        <v>8.20055</v>
       </c>
       <c r="C52" t="n">
-        <v>2062.34</v>
+        <v>8200.549999999999</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.58179</v>
+        <v>1.58121</v>
       </c>
       <c r="B53" t="n">
-        <v>2.07165</v>
+        <v>8.53538</v>
       </c>
       <c r="C53" t="n">
-        <v>2071.65</v>
+        <v>8535.379999999999</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.61276</v>
+        <v>1.61247</v>
       </c>
       <c r="B54" t="n">
-        <v>2.08085</v>
+        <v>8.36666</v>
       </c>
       <c r="C54" t="n">
-        <v>2080.85</v>
+        <v>8366.66</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.64373</v>
+        <v>1.64351</v>
       </c>
       <c r="B55" t="n">
-        <v>2.08994</v>
+        <v>8.36219</v>
       </c>
       <c r="C55" t="n">
-        <v>2089.94</v>
+        <v>8362.190000000001</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.6747</v>
+        <v>1.67398</v>
       </c>
       <c r="B56" t="n">
-        <v>2.09902</v>
+        <v>8.417250000000001</v>
       </c>
       <c r="C56" t="n">
-        <v>2099.02</v>
+        <v>8417.25</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.70566</v>
+        <v>1.70522</v>
       </c>
       <c r="B57" t="n">
-        <v>2.10795</v>
+        <v>8.231159999999999</v>
       </c>
       <c r="C57" t="n">
-        <v>2107.95</v>
+        <v>8231.16</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.73663</v>
+        <v>1.73593</v>
       </c>
       <c r="B58" t="n">
-        <v>2.11679</v>
+        <v>8.06657</v>
       </c>
       <c r="C58" t="n">
-        <v>2116.79</v>
+        <v>8066.57</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.7676</v>
+        <v>1.76695</v>
       </c>
       <c r="B59" t="n">
-        <v>2.12561</v>
+        <v>7.98412</v>
       </c>
       <c r="C59" t="n">
-        <v>2125.61</v>
+        <v>7984.12</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.79857</v>
+        <v>1.79836</v>
       </c>
       <c r="B60" t="n">
-        <v>2.13427</v>
+        <v>7.7362</v>
       </c>
       <c r="C60" t="n">
-        <v>2134.27</v>
+        <v>7736.2</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.82953</v>
+        <v>1.82978</v>
       </c>
       <c r="B61" t="n">
-        <v>2.14291</v>
+        <v>7.57444</v>
       </c>
       <c r="C61" t="n">
-        <v>2142.91</v>
+        <v>7574.44</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.8605</v>
+        <v>1.8612</v>
       </c>
       <c r="B62" t="n">
-        <v>2.15148</v>
+        <v>7.36973</v>
       </c>
       <c r="C62" t="n">
-        <v>2151.48</v>
+        <v>7369.73</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.89147</v>
+        <v>1.89262</v>
       </c>
       <c r="B63" t="n">
-        <v>2.15996</v>
+        <v>7.27742</v>
       </c>
       <c r="C63" t="n">
-        <v>2159.96</v>
+        <v>7277.42</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.92244</v>
+        <v>1.92404</v>
       </c>
       <c r="B64" t="n">
-        <v>2.16842</v>
+        <v>7.070430000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>2168.42</v>
+        <v>7070.43</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.9534</v>
+        <v>1.95546</v>
       </c>
       <c r="B65" t="n">
-        <v>2.17669</v>
+        <v>6.99225</v>
       </c>
       <c r="C65" t="n">
-        <v>2176.69</v>
+        <v>6992.25</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.98437</v>
+        <v>1.98687</v>
       </c>
       <c r="B66" t="n">
-        <v>2.18491</v>
+        <v>6.77898</v>
       </c>
       <c r="C66" t="n">
-        <v>2184.91</v>
+        <v>6778.98</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.01524</v>
+        <v>2.01829</v>
       </c>
       <c r="B67" t="n">
-        <v>2.19292</v>
+        <v>6.68525</v>
       </c>
       <c r="C67" t="n">
-        <v>2192.92</v>
+        <v>6685.25</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.0458</v>
+        <v>2.04962</v>
       </c>
       <c r="B68" t="n">
-        <v>2.20091</v>
+        <v>6.50349</v>
       </c>
       <c r="C68" t="n">
-        <v>2200.91</v>
+        <v>6503.49</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.07635</v>
+        <v>2.08034</v>
       </c>
       <c r="B69" t="n">
-        <v>2.20877</v>
+        <v>6.42452</v>
       </c>
       <c r="C69" t="n">
-        <v>2208.77</v>
+        <v>6424.52</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.10691</v>
+        <v>2.11107</v>
       </c>
       <c r="B70" t="n">
-        <v>2.21651</v>
+        <v>6.25177</v>
       </c>
       <c r="C70" t="n">
-        <v>2216.51</v>
+        <v>6251.77</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.13746</v>
+        <v>2.14179</v>
       </c>
       <c r="B71" t="n">
-        <v>2.22413</v>
+        <v>6.173109999999999</v>
       </c>
       <c r="C71" t="n">
-        <v>2224.13</v>
+        <v>6173.11</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.16801</v>
+        <v>2.17251</v>
       </c>
       <c r="B72" t="n">
-        <v>2.23169</v>
+        <v>6.05309</v>
       </c>
       <c r="C72" t="n">
-        <v>2231.69</v>
+        <v>6053.09</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.19857</v>
+        <v>2.2035</v>
       </c>
       <c r="B73" t="n">
-        <v>2.23914</v>
+        <v>6.00109</v>
       </c>
       <c r="C73" t="n">
-        <v>2239.14</v>
+        <v>6001.09</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.22912</v>
+        <v>2.23449</v>
       </c>
       <c r="B74" t="n">
-        <v>2.24655</v>
+        <v>5.875970000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>2246.55</v>
+        <v>5875.97</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.25968</v>
+        <v>2.26553</v>
       </c>
       <c r="B75" t="n">
-        <v>2.25385</v>
+        <v>5.75719</v>
       </c>
       <c r="C75" t="n">
-        <v>2253.85</v>
+        <v>5757.19</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.29024</v>
+        <v>2.29682</v>
       </c>
       <c r="B76" t="n">
-        <v>2.26116</v>
+        <v>5.663010000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>2261.16</v>
+        <v>5663.01</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.32079</v>
+        <v>2.32809</v>
       </c>
       <c r="B77" t="n">
-        <v>2.26836</v>
+        <v>5.57215</v>
       </c>
       <c r="C77" t="n">
-        <v>2268.36</v>
+        <v>5572.15</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.35135</v>
+        <v>2.35827</v>
       </c>
       <c r="B78" t="n">
-        <v>2.27553</v>
+        <v>5.45409</v>
       </c>
       <c r="C78" t="n">
-        <v>2275.53</v>
+        <v>5454.09</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.3819</v>
+        <v>2.38987</v>
       </c>
       <c r="B79" t="n">
-        <v>2.28265</v>
+        <v>5.35658</v>
       </c>
       <c r="C79" t="n">
-        <v>2282.65</v>
+        <v>5356.58</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.41245</v>
+        <v>2.42186</v>
       </c>
       <c r="B80" t="n">
-        <v>2.28973</v>
+        <v>5.294</v>
       </c>
       <c r="C80" t="n">
-        <v>2289.73</v>
+        <v>5294</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.4439</v>
+        <v>2.45383</v>
       </c>
       <c r="B81" t="n">
-        <v>2.29692</v>
+        <v>5.20761</v>
       </c>
       <c r="C81" t="n">
-        <v>2296.92</v>
+        <v>5207.61</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.47547</v>
+        <v>2.48516</v>
       </c>
       <c r="B82" t="n">
-        <v>2.30409</v>
+        <v>5.14881</v>
       </c>
       <c r="C82" t="n">
-        <v>2304.09</v>
+        <v>5148.81</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.50705</v>
+        <v>2.51558</v>
       </c>
       <c r="B83" t="n">
-        <v>2.31125</v>
+        <v>5.053020000000001</v>
       </c>
       <c r="C83" t="n">
-        <v>2311.25</v>
+        <v>5053.02</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.53862</v>
+        <v>2.54598</v>
       </c>
       <c r="B84" t="n">
-        <v>2.31833</v>
+        <v>4.983140000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>2318.33</v>
+        <v>4983.14</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.57019</v>
+        <v>2.57594</v>
       </c>
       <c r="B85" t="n">
-        <v>2.32541</v>
+        <v>4.879560000000001</v>
       </c>
       <c r="C85" t="n">
-        <v>2325.41</v>
+        <v>4879.56</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.60177</v>
+        <v>2.6058</v>
       </c>
       <c r="B86" t="n">
-        <v>2.33239</v>
+        <v>4.85407</v>
       </c>
       <c r="C86" t="n">
-        <v>2332.39</v>
+        <v>4854.07</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.63334</v>
+        <v>2.63871</v>
       </c>
       <c r="B87" t="n">
-        <v>2.33939</v>
+        <v>4.75441</v>
       </c>
       <c r="C87" t="n">
-        <v>2339.39</v>
+        <v>4754.41</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.66491</v>
+        <v>2.671</v>
       </c>
       <c r="B88" t="n">
-        <v>2.34626</v>
+        <v>4.72365</v>
       </c>
       <c r="C88" t="n">
-        <v>2346.26</v>
+        <v>4723.65</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.69649</v>
+        <v>2.70208</v>
       </c>
       <c r="B89" t="n">
-        <v>2.3532</v>
+        <v>4.67253</v>
       </c>
       <c r="C89" t="n">
-        <v>2353.2</v>
+        <v>4672.53</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.72806</v>
+        <v>2.73316</v>
       </c>
       <c r="B90" t="n">
-        <v>2.36</v>
+        <v>4.614560000000001</v>
       </c>
       <c r="C90" t="n">
-        <v>2360</v>
+        <v>4614.56</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.75963</v>
+        <v>2.76417</v>
       </c>
       <c r="B91" t="n">
-        <v>2.36687</v>
+        <v>4.54387</v>
       </c>
       <c r="C91" t="n">
-        <v>2366.87</v>
+        <v>4543.87</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.79121</v>
+        <v>2.79344</v>
       </c>
       <c r="B92" t="n">
-        <v>2.37361</v>
+        <v>4.51905</v>
       </c>
       <c r="C92" t="n">
-        <v>2373.61</v>
+        <v>4519.05</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.82278</v>
+        <v>2.82271</v>
       </c>
       <c r="B93" t="n">
-        <v>2.38034</v>
+        <v>4.49796</v>
       </c>
       <c r="C93" t="n">
-        <v>2380.34</v>
+        <v>4497.96</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.85435</v>
+        <v>2.8521</v>
       </c>
       <c r="B94" t="n">
-        <v>2.38706</v>
+        <v>4.43675</v>
       </c>
       <c r="C94" t="n">
-        <v>2387.06</v>
+        <v>4436.75</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.88593</v>
+        <v>2.88334</v>
       </c>
       <c r="B95" t="n">
-        <v>2.39372</v>
+        <v>4.41465</v>
       </c>
       <c r="C95" t="n">
-        <v>2393.72</v>
+        <v>4414.65</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.9175</v>
+        <v>2.91556</v>
       </c>
       <c r="B96" t="n">
-        <v>2.40037</v>
+        <v>4.43247</v>
       </c>
       <c r="C96" t="n">
-        <v>2400.37</v>
+        <v>4432.47</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.94907</v>
+        <v>2.94632</v>
       </c>
       <c r="B97" t="n">
-        <v>2.40696</v>
+        <v>4.42818</v>
       </c>
       <c r="C97" t="n">
-        <v>2406.96</v>
+        <v>4428.18</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.98065</v>
+        <v>2.97704</v>
       </c>
       <c r="B98" t="n">
-        <v>2.41356</v>
+        <v>4.41078</v>
       </c>
       <c r="C98" t="n">
-        <v>2413.56</v>
+        <v>4410.78</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.01222</v>
+        <v>3.00776</v>
       </c>
       <c r="B99" t="n">
-        <v>2.42009</v>
+        <v>4.39752</v>
       </c>
       <c r="C99" t="n">
-        <v>2420.09</v>
+        <v>4397.52</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.04379</v>
+        <v>3.03848</v>
       </c>
       <c r="B100" t="n">
-        <v>2.42659</v>
+        <v>4.38584</v>
       </c>
       <c r="C100" t="n">
-        <v>2426.59</v>
+        <v>4385.84</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.07537</v>
+        <v>3.0692</v>
       </c>
       <c r="B101" t="n">
-        <v>2.43307</v>
+        <v>4.342000000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>2433.07</v>
+        <v>4342</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.10694</v>
+        <v>3.09986</v>
       </c>
       <c r="B102" t="n">
-        <v>2.43952</v>
+        <v>4.35104</v>
       </c>
       <c r="C102" t="n">
-        <v>2439.52</v>
+        <v>4351.04</v>
       </c>
     </row>
   </sheetData>
